--- a/Meetings/SU Meeting 1.xlsx
+++ b/Meetings/SU Meeting 1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S503330\Documents\Course History Fall 22\GDP1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S503330\Documents\Course History Fall 22\GDP1\GDP-GRP7\Meetings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25BC6D2E-6005-4146-9287-F684A9C5F64E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8EF2ABED-3BBF-4110-83B3-E23B13A45257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
   <si>
     <t>Monday</t>
   </si>
@@ -142,15 +142,6 @@
     <t>3) The main obstacle is that we have yet to meet our client and thus I don't really have a good idea about what features I should target</t>
   </si>
   <si>
-    <t>1)I accomplished this along with the team the title of the Project is Nursing Symposium and we got an overview regarding our project.</t>
-  </si>
-  <si>
-    <t>2)Ah, well I will do the required research on the project requirements after the client call. And I'm gonna discuss with the team and get the assigning of the work to all teammates as per their expertise.</t>
-  </si>
-  <si>
-    <t>3)The obstacles are regarding the clear info or requirements of the client and the development of application in IOS or Android background.</t>
-  </si>
-  <si>
     <t>3) We actually don't know the exact requirements of the client. Once we came to know about the info we can start working on.</t>
   </si>
   <si>
@@ -160,13 +151,49 @@
     <t xml:space="preserve">1) I have did the initial research on the front end part and databases </t>
   </si>
   <si>
-    <t>2)To discuss once again with the team regarding the process</t>
-  </si>
-  <si>
-    <t>3)I feel the clear information is still yet to finalize.</t>
-  </si>
-  <si>
     <t>1) We had team meeting and decided the project name and by the collective review we are interested in doing the IOS application but it depends as per the client requirement.</t>
+  </si>
+  <si>
+    <t>1) Mocked up a front page idea and a schedule view idea.  They probably need to be iterated on post-meeting.</t>
+  </si>
+  <si>
+    <t>2) Figure out what type of layout is preferable for this type of app.  Need to contact the client to coordinate the meeting.</t>
+  </si>
+  <si>
+    <t>3) The same obstacle as Monday, need to meet with the client to understand the functionalities &amp; requirements.</t>
+  </si>
+  <si>
+    <t>1) As our team we have scheduled meeting with the client and this the accomplishment.</t>
+  </si>
+  <si>
+    <t>2) Well we are gonna have a client meeting and so we are having the team meeting regarding the information needed to develop the application as per the client requirements</t>
+  </si>
+  <si>
+    <t>3) As of now we don't have any obstacles as we are going to have a client meeting.</t>
+  </si>
+  <si>
+    <t>3) The obstacles are regarding the clear info or requirements of the client and the development of application in IOS or Android background.</t>
+  </si>
+  <si>
+    <t>2) Ah, well I will do the required research on the project requirements after the client call. And I'm gonna discuss with the team and get the assigning of the work to all teammates as per their expertise.</t>
+  </si>
+  <si>
+    <t>1) I accomplished this along with the team the title of the Project is Nursing Symposium and we got an overview regarding our project.</t>
+  </si>
+  <si>
+    <t>3) I feel the clear information is still yet to finalize.</t>
+  </si>
+  <si>
+    <t>2) To discuss once again with the team regarding the process</t>
+  </si>
+  <si>
+    <t>1) Gone through some references and great chat with the professor which I sorted some technical areas.</t>
+  </si>
+  <si>
+    <t>2) We have client meeting today will have some quality time and we going to know which areas we should work on may be.</t>
+  </si>
+  <si>
+    <t>3) I think no obstacles as of know.</t>
   </si>
 </sst>
 </file>
@@ -310,33 +337,33 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -620,8 +647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -633,52 +660,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
@@ -704,7 +731,7 @@
         <v>12</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>4</v>
@@ -714,9 +741,9 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
+      <c r="A9" s="16"/>
       <c r="B9" s="5" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>5</v>
@@ -726,9 +753,9 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>6</v>
@@ -738,114 +765,114 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="17" t="s">
-        <v>19</v>
+      <c r="B11" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="103.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="17" t="s">
-        <v>20</v>
+      <c r="A12" s="12"/>
+      <c r="B12" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="17" t="s">
-        <v>21</v>
+      <c r="A13" s="12"/>
+      <c r="B13" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="17" t="s">
-        <v>27</v>
+      <c r="B14" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
+    <row r="15" spans="1:6" ht="76.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="16"/>
       <c r="B15" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="76.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
+      <c r="A16" s="16"/>
       <c r="B16" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
+    <row r="17" spans="1:4" ht="58.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="53.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
+    <row r="18" spans="1:4" ht="76.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="12"/>
       <c r="B18" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="64.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
+      <c r="A19" s="12"/>
       <c r="B19" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>6</v>
@@ -858,18 +885,18 @@
       <c r="B22" s="6"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="14"/>
+      <c r="B23" s="10"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
     </row>
     <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Meetings/SU Meeting 1.xlsx
+++ b/Meetings/SU Meeting 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S503330\Documents\Course History Fall 22\GDP1\GDP-GRP7\Meetings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8EF2ABED-3BBF-4110-83B3-E23B13A45257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C313C4-8690-4312-9175-D6216E91C5A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>Monday</t>
   </si>
@@ -40,12 +40,6 @@
   </si>
   <si>
     <t>1)</t>
-  </si>
-  <si>
-    <t>2)</t>
-  </si>
-  <si>
-    <t>3)</t>
   </si>
   <si>
     <t>Note:</t>
@@ -194,6 +188,48 @@
   </si>
   <si>
     <t>3) I think no obstacles as of know.</t>
+  </si>
+  <si>
+    <t>1) Well had some good interaction with the client and came to known about the requirements also had some clarity now.</t>
+  </si>
+  <si>
+    <t>2) Will start writing the basic code for user interface.</t>
+  </si>
+  <si>
+    <t>3) As of now no obstacles we going great and steady.</t>
+  </si>
+  <si>
+    <t>3) I was unable to meet at the specified time the two groups set with the client due to class.  This means I have to read the meeting notes to decide my next steps.</t>
+  </si>
+  <si>
+    <t>2) My plan for today is to update the repo with the stand up notes, to add any minutes from the client meeting we have, and to continue planning app design.</t>
+  </si>
+  <si>
+    <t>1)  As a team we have accomplished the outline of application development by having the client meeting. As a team we have accomplished the outline of application development by having the client meeting.</t>
+  </si>
+  <si>
+    <t>2)  I have discussed and assigned the sprints with respect to the interests of the team mates.</t>
+  </si>
+  <si>
+    <t>3) The main obstacle regarding the decision of the application background is IOS or Android.</t>
+  </si>
+  <si>
+    <t>1) Looking the features to be presented</t>
+  </si>
+  <si>
+    <t>2) studying the code of existing api</t>
+  </si>
+  <si>
+    <t>3) studying the exixting apis</t>
+  </si>
+  <si>
+    <t>1) Collected the functionalities</t>
+  </si>
+  <si>
+    <t>2) Task seggregation</t>
+  </si>
+  <si>
+    <t>3) Looking at the api and understanding the code</t>
   </si>
 </sst>
 </file>
@@ -647,8 +683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="A15:XFD15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -679,7 +715,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -689,7 +725,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
@@ -699,7 +735,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
@@ -728,165 +764,165 @@
     </row>
     <row r="8" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16"/>
       <c r="B9" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16"/>
       <c r="B10" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="100.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="103.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
       <c r="B12" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
       <c r="B13" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="76.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16"/>
       <c r="B15" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="76.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16"/>
       <c r="B16" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="58.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="76.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12"/>
       <c r="B18" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="64.2" customHeight="1" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="82.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12"/>
       <c r="B19" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B22" s="6"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B23" s="10"/>
     </row>
